--- a/Ввод1.xlsx
+++ b/Ввод1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Документ был экспортирован из Numbers. Каждая таблица была конвертирована в рабочий лист Excel. Все другие объекты на листах Numbers были помещены на отдельные рабочие листы. Имейте в виду, что расчеты формул могут отличаться от расчетов в Excel.</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Пом. 324-1</t>
+  </si>
+  <si>
+    <t>Коллектор отопления</t>
+  </si>
+  <si>
+    <t>К1</t>
+  </si>
+  <si>
+    <t>Пом 2</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1817,9 +1826,15 @@
       <c r="E4" s="27"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="27"/>
+      <c r="A5" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="35">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>22</v>
+      </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
